--- a/scripts/arquivos_example/Tab_info.xlsx
+++ b/scripts/arquivos_example/Tab_info.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="79">
   <si>
     <t xml:space="preserve">1 </t>
   </si>
@@ -88,13 +88,13 @@
     <t xml:space="preserve">Enxágue cuidadosamente com água durante vários minutos. No caso de uso de lentes de contato, remova-as, se for fácil. Continue enxaguando. Caso a irritação ocular persista: consulte um médico.</t>
   </si>
   <si>
-    <t xml:space="preserve">Enxágüe a boca. NÃO provoque vômito. Consulte um médico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pó químico seco, CO2, spray de água ou espuma resistente ao álcool. Evite mirar fluxos retos ou sólidos diretamente no produto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Será facilmente inflamado por calor, faíscas ou chamas.Vapores podem formar misturas explosivas com o ar. A maioria dos vapores são mais pesados que o ar. Eles se espalharão ao longo do solo e se acumularão em áreas baixas ou confinadas (esgotos, porões, tanques, etc.). A inalação ou contato com o material pode irritar ou queimar a pele e os olhos. O fogo pode produzir gases irritantes, corrosivos e / ou tóxicos. Os vapores podem causar tonturas ou asfixia.</t>
+    <t xml:space="preserve">Enxágue a boca. NÃO provoque vômito. Consulte um médico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pó químico seco, CO₂, spray de água ou espuma normal.Evite direcionar jatos retos ou sólidos diretamente no produto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTAMENTE INFLAMÁVEL: Será facilmente inflamado por calor, faíscas ou chamas. Vapores podem formar misturas explosivas com o ar. A maioria dos vapores são mais pesados ​​que o ar. Eles se espalharão pelo solo e se acumularão em áreas baixas ou confinadas (esgotos, porões, tanques, etc.). Os recipientes podem explodir quando aquecidos. A inalação ou contato com o material pode irritar ou queimar a pele e os olhos.</t>
   </si>
   <si>
     <t xml:space="preserve">Use aparelho de respiração autônomo de pressão positiva (SCBA).</t>
@@ -109,68 +109,115 @@
     <t xml:space="preserve">Evite que o produto derramado atinja cursos d’água e rede de esgotos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Todos os equipamentos utilizados no manuseio do produto devem ser aterrados.  Pare o vazamento, se você pode fazê-lo sem risco. Evite a entrada em cursos de água, esgotos, caves ou áreas confinadas. Uma espuma supressora de vapor pode ser usada para reduzir os vapores. Absorva ou cubra com terra seca, areia ou outro material não combustível e transfira para recipientes. Use ferramentas limpas e anti-faíscas para coletar o material absorvido.</t>
+    <t xml:space="preserve">Todos os equipamentos utilizados no manuseio do produto devem ser aterrados.  Pare o vazamento, se você pode fazê-lo sem risco. Evite a entrada em cursos de água, esgotos ou áreas confinadas. Uma espuma supressora de vapor pode ser usada para reduzir os vapores. Absorva ou cubra com terra seca, areia ou outro material não combustível e transfira para recipientes. Use ferramentas limpas e anti-faíscas para coletar o material absorvido.</t>
   </si>
   <si>
     <t xml:space="preserve">Manuseie em uma área ventilada ou com sistema geral de ventilação/exaustão local. Evite formação de vapores ou névoas. Evite exposição ao produto. Evite contato com materiais incompatíveis. Utilize equipamento de proteção individual conforme descrito na seção 8.</t>
   </si>
   <si>
+    <t xml:space="preserve">Lave as mãos e o rosto cuidadosamente após o manuseio e antes de comer, beber, fumar ou ir ao banheiro. Roupas contaminadas devem ser trocadas e lavadas antes de sua reutilização. Remova a roupa e o equipamento de proteção contaminado antes de entrar nas áreas de alimentação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armazene em local bem ventilado, longe da luz solar e fonte de calor. Mantenha o recipiente fechado. Não é necessária adição de estabilizantes e antioxodantes para garantir a durabilidade do produto. Mantenha armazenado em temperatura ambiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Será facilmente inflamado por calor, faíscas ou chamas.Vapores podem formar misturas explosivas com o ar. A maioria dos vapores são mais pesados que o ar. Eles se espalharão ao longo do solo e se acumularão em áreas baixas ou confinadas (esgotos, porões, tanques, etc.). A inalação ou contato com o material pode irritar ou queimar a pele e os olhos. O fogo pode produzir gases irritantes, corrosivos e / ou tóxicos. Os vapores podem causar tonturas ou asfixia. O fogo pode produzir gases irritantes, corrosivos e/ou tóxicos. Os vapores podem causar tonturas ou asfixia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elimite todas as fontes de ignição (faíscas ou chamas) da área imediata. Não tocar ou caminhar sobre material derramado. Utilize equipamento de proteção individual conforme descrito na seção 8. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elimine todas as fontes de ignição (faíscas ou chamas) da área imediata. Não tocar ou caminhar sobre material derramado. Utilize equipamento de proteção individual conforme descrito na seção 8. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTAMENTE INFLAMÁVEL: Será facilmente inflamado por calor, faíscas ou chamas. Vapores podem formar misturas explosivas com o ar. A maioria dos vapores são mais pesados ​​que o ar. Eles se espalharão pelo solo e se acumularão em áreas baixas ou confinadas (esgotos, porões, tanques, etc.). Os recipientes podem explodir quando aquecidos. Pode causar efeitos tóxicos se inalado ou absorvido pela pele. A inalação ou contato com o material pode irritar ou queimar a pele e os olhos. O fogo produzirá gases irritantes, corrosivos e/ou tóxicos. Os vapores podem causar tonturas ou asfixia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elimine todas as fontes de ignição (faíscas ou chamas) da área imediata.  Não tocar ou caminhar sobre material derramado. Utilize equipamento de proteção individual conforme descrito na seção 8. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTAMENTE INFLAMÁVEL: Será facilmente inflamado por calor, faíscas ou chamas. Vapores podem formar misturas explosivas com o ar. A maioria dos vapores são mais pesados ​​que o ar. Eles se espalharão pelo solo e se acumularão em áreas baixas ou confinadas (esgotos, porões, tanques, etc.). Os recipientes podem explodir quando aquecidos. TÓXICO; pode ser fatal se inalado, ingerido ou absorvido pela pele. A inalação ou contacto com alguns destes materiais irá irritar ou queimar a pele e os olhos. O fogo produzirá gases irritantes, corrosivos e/ou tóxicos. Os vapores podem causar tonturas ou asfixia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material inflamável/combustível. Pode ser inflamado por calor, faíscas ou chamas. Vapores podem formar misturas explosivas com o ar. A maioria dos vapores são mais pesados ​​que o ar. Eles se espalharão pelo solo e se acumularão em áreas baixas ou confinadas (esgotos, porões, tanques, etc.). Os recipientes podem explodir quando aquecidos. Pode causar efeitos tóxicos se inalado ou ingerido. O contacto com a substância pode causar queimaduras graves na pele e nos olhos. O fogo produzirá gases irritantes, corrosivos e/ou tóxicos. Os vapores podem causar tonturas ou asfixia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use aparelho respiratório autônomo de pressão positiva (SCBA).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enxágue a boca. NÃO provoque vômito. Consulte um médico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gases inflamáveis/tóxicos podem acumular-se em áreas confinadas (porão, tanques, tremonhas/vagões-tanque, etc.). CORROSIVO e/ou TÓXICO; inalação, ingestão ou contato (pele, olhos) com vapores, poeiras ou substâncias pode causar ferimentos graves, queimaduras ou morte. O fogo produzirá gases irritantes, corrosivos e/ou tóxicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não toque em recipientes danificados ou em material derramado, a menos que esteja usando roupas de proteção adequadas. Utilize equipamento de proteção individual conforme descrito na seção 8. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pare o vazamento, se você pode fazê-lo sem risco. Mantenha combustíveis (madeira, papel, óleo, etc.) longe do material derramado. Use ferramentas limpas e que não produzam faíscas para coletar o material para descarte posterior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use água. Não use produtos químicos secos ou espumas. CO₂ podem fornecer controle limitado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estas substâncias acelerarão a combustão quando envolvidas num incêndio. Os recipientes podem explodir quando aquecidos. A inalação, ingestão ou contato (pele, olhos) com vapores ou substâncias pode causar ferimentos graves, queimaduras ou morte. O fogo pode produzir gases irritantes, corrosivos e/ou tóxicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pare o vazamento, se você pode fazê-lo sem risco. Mantenha combustíveis (madeira, papel, óleo, etc.) longe do material derramado. Use ferramentas limpas e que não produzam faíscas para coletar o material para posterior descarte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estas substâncias acelerarão a combustão quando envolvidas num incêndio. Alguns podem queimar rapidamente. Os recipientes podem explodir quando aquecidos. Tóxico por ingestão. A inalação de poeira é tóxica. O fogo pode produzir gases irritantes, corrosivos e/ou tóxicos. O contacto com a substância pode causar queimaduras graves na pele e nos olhos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evite que o produto derramado atinja cursos de água e rede de esgotos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pó químico seco, CO₂, spray de água ou espuma resistente ao álcool. Água pulverizada, neblina ou espuma resistente ao álcool.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não combustível, a substância em si não queima, mas pode se decompor quando aquecida para produzir produtos corrosivos. Os recipientes podem explodir quando aquecidos. Altamente tóxico, pode ser fatal se inalado, ingerido ou absorvido pela pele. Evite qualquer contato com a pele. O fogo pode produzir gases irritantes, corrosivos e/ou tóxicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pare o vazamento, se você pode fazê-lo sem risco. Impedir a entrada em cursos d’água, esgotos ou áreas confinadas. Absorver ou cobrir com terra seca, areia ou outro material incombustível e transferir para recipientes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pó químico seco, CO₂ ou spray de água.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material combustível: pode queimar, mas não inflama facilmente. Quando aquecidos, os vapores podem formar misturas explosivas com o ar: explosão em ambientes internos, externos e em esgotos perigos. Os recipientes podem explodir quando aquecidos. TÓXICO; inalação, ingestão ou contato da pele com o material pode causar ferimentos graves ou morte. Evite qualquer contato com a pele. O fogo pode produzir gases irritantes, corrosivos e/ou tóxicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elimine todas as fontes de ignição (faíscas ou chamas) da área imediata. Não toque em recipientes danificados ou em material derramado, a menos que esteja usando roupas de proteção adequadas. Utilize equipamento de proteção individual conforme descrito na seção 8. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não combustível, a substância em si não queima, mas pode se decompor quando aquecida para produzir produtos corrosivos e/ou vapores tóxicos. Os recipientes podem explodir quando aquecidos. TÓXICO se inalado, ingerido ou em contato com a pele. O fogo pode produzir gases irritantes, corrosivos e/ou tóxicos.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lave as mãos e o rosto cuidadosamente após o manuseio e antes de comer, beber, fumar ou ir ao banheiro. Roupas contaminadas devem ser trocadas e lavadas antes de sua reutilização. Remova a roupa e o equipamento de proteção contaminado antes de entrar nas áreas de alimentação </t>
   </si>
   <si>
-    <t xml:space="preserve">Pó químico seco, CO2, spray de água ou espuma normal. Evite mirar fluxos retos ou sólidos diretamente no produto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTAMENTE INFLAMÁVEL: Será facilmente inflamado por calor, faíscas ou chamas. Vapores podem formar misturas explosivas com o ar. A maioria dos vapores são mais pesados que o ar. Eles se espalharão ao longo do solo e se acumularão em áreas baixas ou confinadas
-(esgotos, porões, tanques, etc.). Os recipientes podem explodir quando aquecidos. A inalação ou contato com o material pode irritar ou queimar a pele e os olhos. O fogo pode produzir gases irritantes, corrosivos e / ou tóxicos. Os vapores podem causar tonturas ou asfixia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pó químico seco, CO2, spray de água ou espuma resistente ao álcool. Não use extintores de pó químico para controlar incêndios envolvendo nitrometano (UN1261) ou nitroetano (UN2842).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTAMENTE INFLAMÁVEL: Será facilmente inflamado por calor, faíscas ou chamas. Vapores podem formar misturas explosivas com o ar. A maioria dos vapores são mais pesados que o ar. Eles se espalharão ao longo do solo e se acumularão em áreas baixas ou confinadas (esgotos, porões, tanques, etc.). Os vapores podem causar tonturas ou asfixia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTAMENTE INFLAMÁVEL: Será facilmente inflamado por calor, faíscas ou chamas Vapores podem formar misturas explosivas com o ar. A maioria dos vapores são mais pesados que o ar. Eles se espalharão ao longo do solo e se acumularão em áreas baixas ou confinadas
-(esgotos, porões, tanques, etc.). Os recipientes podem explodir quando aquecidos TÓXICO; pode ser fatal se inalado, ingerido ou absorvido pela pele. A inalação ou contato com alguns desses materiais irritará ou queimará a pele e os olhos. O fogo produzirá gases irritantes, corrosivos e / ou tóxicos. Os vapores podem causar tonturas ou asfixia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pó químico seco, CO2, spray de água ou espuma resistente ao álcool.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material inflamável / combustível. Pode ser inflamado por calor, faíscas ou chamas. Vapores podem formar misturas explosivas com o ar. A maioria dos vapores são mais pesados que o ar. Eles se espalharão ao longo do solo e se acumularão em áreas baixas ou confinadas(esgotos, porões, tanques, etc.). Os recipientes podem explodir quando aquecidos. Pode causar efeitos tóxicos se inalado ou ingerido. O contato com a substância pode causar queimaduras graves na pele e nos olhos. O fogo produzirá gases irritantes, corrosivos e / ou tóxicos. Os vapores podem causar tonturas ou asfixia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pó químico seco ou CO2. Quando o material não está envolvido no fogo, não use água no próprio material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORROSIVO e / ou TÓXICO; inalação, ingestão ou contato (pele, olhos) com vapores, poeiras ou substâncias pode causar ferimentos graves, queimaduras ou morte. O fogo produzirá gases irritantes, corrosivos e / ou tóxicos. A reação com a água pode gerar muito calor que aumentará a concentração de vapores no ar. Os recipientes podem explodir quando aquecidos ou contaminados com água.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use água. Não use produtos químicos secos ou espumas. CO2 podem fornecer controle limitado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essas substâncias irão acelerar a queima quando envolvidas em um incêndio. Alguns podem se decompor de forma explosiva quando aquecidos ou envolvidos em um incêndio. Pode explodir por causa do calor ou contaminação. Alguns vão reagir explosivamente com hidrocarbonetos (combustíveis). Pode inflamar combustíveis (madeira, papel, óleo, roupas, etc.). Os recipientes podem explodir quando aquecidos. A inalação, ingestão ou contato (pele, olhos) com vapores ou substância pode causar ferimentos graves, queimaduras ou morte. O fogo pode produzir gases irritantes, corrosivos e / ou tóxicos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pó químico seco, CO2 ou spray de água. Evite mirar fluxos retos ou sólidos diretamente no produto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não combustível, a própria substância não queima, mas pode se decompor com o aquecimento para produzir corrosivo
-e / ou fumos tóxicos. Os recipientes podem explodir quando aquecidos. Altamente tóxico, pode ser fatal se inalado, ingerido ou absorvido pela pele. Evite qualquer contato com a pele. Os efeitos do contato ou inalação podem ser retardados. O fogo pode produzir gases irritantes, corrosivos e / ou tóxicos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pó químico seco, CO2 ou spray de água.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este material não é combustivel, mas pode decompor-se ao ser aquecida para produzir gases corrosivos e ou tóxicos. Contato com metais pode envolver gás hidrogênio inflamável.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2 (exceto para cianetos), pó químico seco, areia seca, espuma resistente ao álcool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não combustível, a própria substância não queima, mas pode se decompor com o aquecimento para produzir produtos corrosivos
-e / ou fumos tóxicos. A substância pode reagir com a água (algumas violentamente), liberando gases corrosivos e / ou tóxicos e escorrendo Contacto com metais pode envolver gás hidrogénio inflamável. Os recipientes podem explodir quando aquecidos ou contaminados com água.</t>
+    <t xml:space="preserve">CO₂, pó químico seco, areia seca, espuma resistente ao álcool. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não combustível, a substância em si não queima, mas pode se decompor quando aquecida para produzir produtos corrosivos e/ou vapores tóxicos. Os recipientes podem explodir quando aquecidos ou se forem contaminados com água. TÓXICO; inalação, ingestão ou contato (pele, olhos) com vapores, poeiras ou substâncias pode causar graves ferimentos, queimaduras ou morte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilizar EPI completo, com óculos de proteção lateral, luvas de proteção de PVC, calçado de segurança e vestimenta protetora impermeável. Em caso de grandes vazamentos, onde a exposição é grande, recomenda-se o uso de máscara de proteção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pare o vazamento, se você pode fazê-lo sem risco. Impedir a entrada em cursos d’água esgotos ou áreas confinadas. Absorver ou cobrir com terra seca, areia ou outro material incombustível e transferir para recipientes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alguns destes materiais podem queimar, mas nenhum se inflama facilmente. Os vapores podem causar tonturas ou asfixia. O fogo pode produzir gases irritantes e/ou tóxicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pó químico seco, CO₂, spray de água ou espuma normal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pode queimar, mas não se inflama facilmente. Os vapores podem causar tonturas ou asfixia. O fogo pode produzir gases irritantes, corrosivos e/ou tóxicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se isso puder ser feito com segurança, afaste os recipientes não danificados da área ao redor do fogo. Utilize equipamento de proteção individual conforme descrito na seção 8. </t>
   </si>
   <si>
     <t xml:space="preserve">116P</t>
@@ -337,16 +384,18 @@
   <dimension ref="A1:BI75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <pane xSplit="0" ySplit="615" topLeftCell="A13" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.81"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -443,7 +492,7 @@
       <c r="BH1" s="3"/>
       <c r="BI1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>113</v>
       </c>
@@ -540,7 +589,7 @@
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>114</v>
       </c>
@@ -637,7 +686,7 @@
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>115</v>
       </c>
@@ -734,7 +783,7 @@
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>116</v>
       </c>
@@ -831,7 +880,7 @@
       <c r="BH5" s="3"/>
       <c r="BI5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>117</v>
       </c>
@@ -928,7 +977,7 @@
       <c r="BH6" s="3"/>
       <c r="BI6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>118</v>
       </c>
@@ -1025,7 +1074,7 @@
       <c r="BH7" s="3"/>
       <c r="BI7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>119</v>
       </c>
@@ -1122,7 +1171,7 @@
       <c r="BH8" s="3"/>
       <c r="BI8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>120</v>
       </c>
@@ -1219,7 +1268,7 @@
       <c r="BH9" s="3"/>
       <c r="BI9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>122</v>
       </c>
@@ -1316,7 +1365,7 @@
       <c r="BH10" s="3"/>
       <c r="BI10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>123</v>
       </c>
@@ -1413,7 +1462,7 @@
       <c r="BH11" s="3"/>
       <c r="BI11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>124</v>
       </c>
@@ -1510,7 +1559,7 @@
       <c r="BH12" s="3"/>
       <c r="BI12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>125</v>
       </c>
@@ -1607,7 +1656,7 @@
       <c r="BH13" s="3"/>
       <c r="BI13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>126</v>
       </c>
@@ -1704,21 +1753,21 @@
       <c r="BH14" s="3"/>
       <c r="BI14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>127</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
@@ -1727,34 +1776,34 @@
         <v>18</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -1801,7 +1850,7 @@
       <c r="BH15" s="3"/>
       <c r="BI15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>128</v>
       </c>
@@ -1827,13 +1876,13 @@
         <v>23</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>27</v>
@@ -1851,7 +1900,7 @@
         <v>31</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -1898,7 +1947,7 @@
       <c r="BH16" s="3"/>
       <c r="BI16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>129</v>
       </c>
@@ -1921,34 +1970,34 @@
         <v>18</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -2018,34 +2067,34 @@
         <v>18</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
@@ -2092,7 +2141,7 @@
       <c r="BH18" s="3"/>
       <c r="BI18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>131</v>
       </c>
@@ -2115,34 +2164,34 @@
         <v>18</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -2189,7 +2238,7 @@
       <c r="BH19" s="3"/>
       <c r="BI19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>132</v>
       </c>
@@ -2212,34 +2261,34 @@
         <v>18</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -2309,13 +2358,13 @@
         <v>18</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>17</v>
@@ -2383,7 +2432,7 @@
       <c r="BH21" s="3"/>
       <c r="BI21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>134</v>
       </c>
@@ -2480,7 +2529,7 @@
       <c r="BH22" s="3"/>
       <c r="BI22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>135</v>
       </c>
@@ -2577,7 +2626,7 @@
       <c r="BH23" s="3"/>
       <c r="BI23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>136</v>
       </c>
@@ -2679,16 +2728,16 @@
         <v>137</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>18</v>
@@ -2697,34 +2746,34 @@
         <v>18</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -2771,21 +2820,21 @@
       <c r="BH25" s="3"/>
       <c r="BI25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>138</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>18</v>
@@ -2794,13 +2843,13 @@
         <v>18</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>17</v>
@@ -2818,7 +2867,7 @@
         <v>17</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>17</v>
@@ -2868,7 +2917,7 @@
       <c r="BH26" s="3"/>
       <c r="BI26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>139</v>
       </c>
@@ -2965,21 +3014,21 @@
       <c r="BH27" s="3"/>
       <c r="BI27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>140</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>18</v>
@@ -2988,34 +3037,34 @@
         <v>18</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
@@ -3062,7 +3111,7 @@
       <c r="BH28" s="3"/>
       <c r="BI28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>141</v>
       </c>
@@ -3085,34 +3134,34 @@
         <v>18</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -3159,7 +3208,7 @@
       <c r="BH29" s="3"/>
       <c r="BI29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>142</v>
       </c>
@@ -3256,7 +3305,7 @@
       <c r="BH30" s="3"/>
       <c r="BI30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>143</v>
       </c>
@@ -3353,7 +3402,7 @@
       <c r="BH31" s="3"/>
       <c r="BI31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>144</v>
       </c>
@@ -3450,7 +3499,7 @@
       <c r="BH32" s="3"/>
       <c r="BI32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>145</v>
       </c>
@@ -3547,7 +3596,7 @@
       <c r="BH33" s="3"/>
       <c r="BI33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>146</v>
       </c>
@@ -3644,7 +3693,7 @@
       <c r="BH34" s="3"/>
       <c r="BI34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>147</v>
       </c>
@@ -3741,7 +3790,7 @@
       <c r="BH35" s="3"/>
       <c r="BI35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>148</v>
       </c>
@@ -3838,7 +3887,7 @@
       <c r="BH36" s="3"/>
       <c r="BI36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>149</v>
       </c>
@@ -3935,7 +3984,7 @@
       <c r="BH37" s="3"/>
       <c r="BI37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>150</v>
       </c>
@@ -4037,16 +4086,16 @@
         <v>151</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>18</v>
@@ -4054,35 +4103,35 @@
       <c r="G39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>17</v>
+      <c r="H39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
@@ -4129,21 +4178,21 @@
       <c r="BH39" s="3"/>
       <c r="BI39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>152</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>18</v>
@@ -4152,13 +4201,13 @@
         <v>18</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>17</v>
@@ -4176,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>17</v>
@@ -4226,21 +4275,21 @@
       <c r="BH40" s="3"/>
       <c r="BI40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>153</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>18</v>
@@ -4249,34 +4298,34 @@
         <v>18</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>17</v>
+        <v>53</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -4346,34 +4395,34 @@
         <v>18</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>17</v>
+        <v>53</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
@@ -4420,21 +4469,21 @@
       <c r="BH42" s="3"/>
       <c r="BI42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>155</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>18</v>
@@ -4443,13 +4492,13 @@
         <v>18</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>17</v>
@@ -4467,7 +4516,7 @@
         <v>17</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>17</v>
@@ -4517,7 +4566,7 @@
       <c r="BH43" s="3"/>
       <c r="BI43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>156</v>
       </c>
@@ -4614,21 +4663,21 @@
       <c r="BH44" s="3"/>
       <c r="BI44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>157</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>18</v>
@@ -4637,34 +4686,34 @@
         <v>18</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>17</v>
+        <v>58</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
@@ -4711,21 +4760,21 @@
       <c r="BH45" s="3"/>
       <c r="BI45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>158</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>18</v>
@@ -4734,10 +4783,10 @@
         <v>18</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>17</v>
@@ -4758,7 +4807,7 @@
         <v>17</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>17</v>
@@ -4808,7 +4857,7 @@
       <c r="BH46" s="3"/>
       <c r="BI46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>159</v>
       </c>
@@ -4910,16 +4959,16 @@
         <v>160</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>18</v>
@@ -4928,34 +4977,34 @@
         <v>18</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
@@ -5002,7 +5051,7 @@
       <c r="BH48" s="3"/>
       <c r="BI48" s="3"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>161</v>
       </c>
@@ -5099,7 +5148,7 @@
       <c r="BH49" s="3"/>
       <c r="BI49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>162</v>
       </c>
@@ -5196,7 +5245,7 @@
       <c r="BH50" s="3"/>
       <c r="BI50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>163</v>
       </c>
@@ -5293,7 +5342,7 @@
       <c r="BH51" s="3"/>
       <c r="BI51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>164</v>
       </c>
@@ -5390,7 +5439,7 @@
       <c r="BH52" s="3"/>
       <c r="BI52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>165</v>
       </c>
@@ -5487,7 +5536,7 @@
       <c r="BH53" s="3"/>
       <c r="BI53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>166</v>
       </c>
@@ -5584,7 +5633,7 @@
       <c r="BH54" s="3"/>
       <c r="BI54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>168</v>
       </c>
@@ -5681,7 +5730,7 @@
       <c r="BH55" s="3"/>
       <c r="BI55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>169</v>
       </c>
@@ -5778,7 +5827,7 @@
       <c r="BH56" s="3"/>
       <c r="BI56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>170</v>
       </c>
@@ -5875,21 +5924,21 @@
       <c r="BH57" s="3"/>
       <c r="BI57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>171</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>18</v>
@@ -5898,34 +5947,34 @@
         <v>18</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
@@ -5972,21 +6021,21 @@
       <c r="BH58" s="3"/>
       <c r="BI58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>172</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>18</v>
@@ -6019,7 +6068,7 @@
         <v>17</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>17</v>
@@ -6069,7 +6118,7 @@
       <c r="BH59" s="3"/>
       <c r="BI59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>173</v>
       </c>
@@ -6166,7 +6215,7 @@
       <c r="BH60" s="3"/>
       <c r="BI60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>174</v>
       </c>
@@ -6263,9 +6312,9 @@
       <c r="BH61" s="3"/>
       <c r="BI61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>17</v>
@@ -6360,9 +6409,9 @@
       <c r="BH62" s="3"/>
       <c r="BI62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>17</v>
@@ -6459,7 +6508,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>17</v>
@@ -6479,7 +6528,7 @@
       <c r="G64" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I64" s="2" t="s">
@@ -6554,9 +6603,9 @@
       <c r="BH64" s="3"/>
       <c r="BI64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>17</v>
@@ -6651,9 +6700,9 @@
       <c r="BH65" s="3"/>
       <c r="BI65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>17</v>
@@ -6748,9 +6797,9 @@
       <c r="BH66" s="3"/>
       <c r="BI66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>17</v>
@@ -6845,9 +6894,9 @@
       <c r="BH67" s="3"/>
       <c r="BI67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>17</v>
@@ -6942,9 +6991,9 @@
       <c r="BH68" s="3"/>
       <c r="BI68" s="3"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>17</v>
@@ -7039,9 +7088,9 @@
       <c r="BH69" s="3"/>
       <c r="BI69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>17</v>
@@ -7136,9 +7185,9 @@
       <c r="BH70" s="3"/>
       <c r="BI70" s="3"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>17</v>
@@ -7233,9 +7282,9 @@
       <c r="BH71" s="3"/>
       <c r="BI71" s="3"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>17</v>
@@ -7330,9 +7379,9 @@
       <c r="BH72" s="3"/>
       <c r="BI72" s="3"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>17</v>
@@ -7427,9 +7476,9 @@
       <c r="BH73" s="3"/>
       <c r="BI73" s="3"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>17</v>
@@ -7524,7 +7573,7 @@
       <c r="BH74" s="3"/>
       <c r="BI74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
